--- a/sqllab/earthquakeData.xlsx
+++ b/sqllab/earthquakeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carletoncollegemn-my.sharepoint.com/personal/sonr_carleton_edu/Documents/GitHub/cs257/sqllab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{17E7CF78-EDC6-C94F-A1F4-84B12D0C7B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCD1B4BA-C160-C04E-912C-67CFE30E061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380"/>
   </bookViews>
@@ -11161,8 +11161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1675" workbookViewId="0">
-      <selection activeCell="J1702" sqref="J1702"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sqllab/earthquakeData.xlsx
+++ b/sqllab/earthquakeData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carletoncollegemn-my.sharepoint.com/personal/sonr_carleton_edu/Documents/GitHub/cs257/sqllab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCD1B4BA-C160-C04E-912C-67CFE30E061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{CCD1B4BA-C160-C04E-912C-67CFE30E061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D592C343-6982-6A40-B1B0-D96592005C24}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="earthquakeData" sheetId="1" r:id="rId1"/>
@@ -10298,9 +10298,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -10781,7 +10781,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11158,11 +11158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A1648" workbookViewId="0">
+      <selection activeCell="I1650" sqref="I1650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61147,7 +61147,7 @@
         <v>7</v>
       </c>
       <c r="I1666" s="1">
-        <f t="shared" ref="I1666:I1729" si="26">DATEVALUE(MID(A1666,1,10))+TIMEVALUE(MID(A1666,12,8))</f>
+        <f t="shared" ref="I1666:I1699" si="26">DATEVALUE(MID(A1666,1,10))+TIMEVALUE(MID(A1666,12,8))</f>
         <v>44924.474236111113</v>
       </c>
     </row>
